--- a/SPPSApi/Doc/Template/FS1212_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1212_Import.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -476,7 +476,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/SPPSApi/Doc/Template/FS1212_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1212_Import.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>品番</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,51 +24,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>受入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦丰涂装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器具收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品番工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文品名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看板收容数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>车型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦丰涂装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>器具收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番工场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看板收容数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番频度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,6 +89,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -142,9 +145,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +170,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,105 +473,79 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7" customWidth="1"/>
+    <col min="7" max="7" width="45.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="11.69921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/SPPSApi/Doc/Template/FS1212_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1212_Import.xlsx
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英文品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看板收容数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +69,10 @@
   </si>
   <si>
     <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">英文品名 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>6</v>
@@ -512,16 +512,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
@@ -533,13 +533,13 @@
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS1212_Import.xlsx
+++ b/SPPSApi/Doc/Template/FS1212_Import.xlsx
@@ -72,7 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">英文品名 </t>
+    <t>英文品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
